--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF896678-E267-41DA-BBD2-197658BCAC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBE577D-0E08-493C-9ABA-A17049B5CD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2221,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2271,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E73F7F-45E0-423B-A01B-B6DF6F75CAB7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2720,7 +2720,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3193,7 +3193,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3640,7 +3640,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4086,7 +4086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB224AF7-AF06-40B8-9986-34C502BD82F3}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4532,7 +4534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB82C02F-BCC0-4FE2-9CCD-B8D1440925A2}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5003,7 +5007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78952B52-95E9-4A46-956D-99C2442CB011}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5448,7 +5454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC6F8DD-C4F6-4B8F-AEB1-9B49F4112981}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBE577D-0E08-493C-9ABA-A17049B5CD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FA0510-C125-4C13-97CA-F4772B939F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2221,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2271,7 +2271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E73F7F-45E0-423B-A01B-B6DF6F75CAB7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
